--- a/data/trans_dic/P15A-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P15A-Dificultad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01928418555930779</v>
+        <v>0.02006310013862937</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01338828224129891</v>
+        <v>0.01334654080459609</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01952173890947185</v>
+        <v>0.01980843077473045</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01313666336796696</v>
+        <v>0.01343715944184927</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01744462746437913</v>
+        <v>0.01821427301555451</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01646908686522774</v>
+        <v>0.01728176095576303</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01875975083785502</v>
+        <v>0.01887423976880523</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02426939708637274</v>
+        <v>0.0233940652448884</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02178473573571247</v>
+        <v>0.02125093776050898</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01676208879711644</v>
+        <v>0.01658787442778705</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.02153689234928374</v>
+        <v>0.02149768940654955</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.02190806792695124</v>
+        <v>0.02117779367714555</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04916688119803367</v>
+        <v>0.0489453208928014</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03297723410208654</v>
+        <v>0.03353589986177407</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04033731931133221</v>
+        <v>0.04108811874738386</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04160608845717462</v>
+        <v>0.04132067377860049</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03874055322747687</v>
+        <v>0.03931909416089479</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.03554745488025612</v>
+        <v>0.03640837808986467</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.03836071612941084</v>
+        <v>0.03949309674760286</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.05692453800603937</v>
+        <v>0.05484948333202212</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03888085328760239</v>
+        <v>0.03991512419448826</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.02977037455935662</v>
+        <v>0.03055029335132011</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.03517341512492754</v>
+        <v>0.03509081430468382</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.04205208489496445</v>
+        <v>0.04277438083135444</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02235486775866465</v>
+        <v>0.021787205222622</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02401131322873043</v>
+        <v>0.02224599953019404</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01724081394837854</v>
+        <v>0.01697960275032705</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01334325966837459</v>
+        <v>0.01345553476792507</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01944901658191759</v>
+        <v>0.02004087446706457</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01774927434785349</v>
+        <v>0.0181899297248136</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01327185267282098</v>
+        <v>0.01304843483557185</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02195404316868157</v>
+        <v>0.02139556109474366</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02317726437248431</v>
+        <v>0.02381515437606754</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02243299312350831</v>
+        <v>0.02306724665861527</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01751574815039581</v>
+        <v>0.01767819648428418</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02024106359616999</v>
+        <v>0.02048577633367129</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04493858266196939</v>
+        <v>0.04332603246209554</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04723369142884724</v>
+        <v>0.04472305271295441</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03897382896916279</v>
+        <v>0.03875771151742309</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03555081617012294</v>
+        <v>0.03498436123361646</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04224379606402116</v>
+        <v>0.04007492117044202</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.03824858372541231</v>
+        <v>0.03885737982654691</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.0341345274744172</v>
+        <v>0.03419402889425787</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.03810381529090966</v>
+        <v>0.03767911855939796</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03812908933716529</v>
+        <v>0.03868315644875726</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.03779506989296659</v>
+        <v>0.03817444054920919</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.03179543652697572</v>
+        <v>0.03214032749077086</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.03336621744009598</v>
+        <v>0.0335208444549283</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02771325979264626</v>
+        <v>0.02832087759058773</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01732641836753542</v>
+        <v>0.01814555458303745</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01742192723978008</v>
+        <v>0.01757424613504538</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01583817040187684</v>
+        <v>0.01693215501809175</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01606751847036318</v>
+        <v>0.01664610097175696</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02149688205699401</v>
+        <v>0.02161644389779777</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01843432927769572</v>
+        <v>0.01875215741102793</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01843627995931875</v>
+        <v>0.01797410032895566</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02548403615873757</v>
+        <v>0.02538975282405839</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02235657903750614</v>
+        <v>0.02259105720072608</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02030647643065226</v>
+        <v>0.02029314571048759</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.0190411663820237</v>
+        <v>0.01974823054089661</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05215652507683776</v>
+        <v>0.05265107950466912</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03823849532329909</v>
+        <v>0.03960357856814539</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03965228857544092</v>
+        <v>0.03936446470625519</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03869849322460978</v>
+        <v>0.04007307911460207</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.0362077752103961</v>
+        <v>0.03628855008671725</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04766201290737244</v>
+        <v>0.04603265488026357</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.04488008573879068</v>
+        <v>0.04292007280246261</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.03401306676066608</v>
+        <v>0.03306330214586814</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04117637719753333</v>
+        <v>0.04211905289515515</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03827010850113613</v>
+        <v>0.0387636077635689</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.03756310468918598</v>
+        <v>0.03807652791529396</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.03239297140387908</v>
+        <v>0.03293064859049218</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03547437835617832</v>
+        <v>0.034634062680953</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02343717470937837</v>
+        <v>0.02364967629039669</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01064379711529223</v>
+        <v>0.01071084654811208</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01317565211244518</v>
+        <v>0.01252658080639066</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01625847787694024</v>
+        <v>0.01726074830916529</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01379100997599642</v>
+        <v>0.01388182667006669</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.008250440309341916</v>
+        <v>0.007285171622108112</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01261861151900615</v>
+        <v>0.01313368799503405</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.0324517430409918</v>
+        <v>0.03112932559931737</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.02195681410957002</v>
+        <v>0.02353729837382396</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01119389671246719</v>
+        <v>0.01209677568137911</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.01501255057178785</v>
+        <v>0.01499250264675804</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.08049300360671797</v>
+        <v>0.08221925575888224</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06392591899726738</v>
+        <v>0.06486653469692566</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03802433381332583</v>
+        <v>0.03812203014568743</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.04075325055176146</v>
+        <v>0.04011882775740595</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05567378714265228</v>
+        <v>0.05493538756258656</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.05148111903001409</v>
+        <v>0.04858770135972497</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03419605845873387</v>
+        <v>0.03201931494453974</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02903509882474532</v>
+        <v>0.02988019687182088</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.06322759704032159</v>
+        <v>0.06300759173003571</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.04727255471900527</v>
+        <v>0.0509178615786058</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.03018602568768527</v>
+        <v>0.03049201556712063</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.03080072789010345</v>
+        <v>0.03081737161887888</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.02561920798679825</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.02515819787384463</v>
+        <v>0.02515819787384464</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03157991935494229</v>
+        <v>0.03181333690797527</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02294510514876407</v>
+        <v>0.02322846222252066</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02144375944737959</v>
+        <v>0.0209760078664561</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01839713368289594</v>
+        <v>0.01819147218606718</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02212234615088561</v>
+        <v>0.02237991222757764</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02253303643767413</v>
+        <v>0.02208733411412689</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01983269324978163</v>
+        <v>0.01988879833936267</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.02266423384356383</v>
+        <v>0.02190764353412446</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02831480186283177</v>
+        <v>0.02847089463740574</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.02437179407912185</v>
+        <v>0.02447683744423272</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.0216319287960176</v>
+        <v>0.02196207516827924</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.02168707637110988</v>
+        <v>0.02189651279960916</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04586540793383599</v>
+        <v>0.04510680693993285</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.0348157037107546</v>
+        <v>0.03523629522306543</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03216990229078866</v>
+        <v>0.03265097709661238</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.0303696744470976</v>
+        <v>0.03027138577468272</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.03319229694497553</v>
+        <v>0.03379497891702605</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.03356342346479193</v>
+        <v>0.03327407291758754</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.03045965117185383</v>
+        <v>0.03157499450389829</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.03206784097757317</v>
+        <v>0.03163377142361989</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.03701777630860792</v>
+        <v>0.03738815383711191</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.03252433048089301</v>
+        <v>0.03261247663136201</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.02939607328635377</v>
+        <v>0.02996126847166983</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.02920067623359819</v>
+        <v>0.02959401202104643</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>11265</v>
+        <v>11720</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>13976</v>
+        <v>13933</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>22020</v>
+        <v>22344</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>6552</v>
+        <v>6702</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>16090</v>
+        <v>16800</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>18444</v>
+        <v>19354</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>23629</v>
+        <v>23773</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>15134</v>
+        <v>14588</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>32818</v>
+        <v>32014</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>36271</v>
+        <v>35894</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>51421</v>
+        <v>51327</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>24588</v>
+        <v>23768</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>28720</v>
+        <v>28591</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>34426</v>
+        <v>35009</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>45500</v>
+        <v>46347</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>20751</v>
+        <v>20608</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>35732</v>
+        <v>36265</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>39811</v>
+        <v>40775</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>48318</v>
+        <v>49744</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>35497</v>
+        <v>34203</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>58573</v>
+        <v>60131</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>64419</v>
+        <v>66107</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>83979</v>
+        <v>83781</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>47196</v>
+        <v>48007</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>24096</v>
+        <v>23484</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>23461</v>
+        <v>21736</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>15669</v>
+        <v>15431</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>12811</v>
+        <v>12919</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>20568</v>
+        <v>21194</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>19422</v>
+        <v>19905</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>13358</v>
+        <v>13133</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>24497</v>
+        <v>23874</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>49493</v>
+        <v>50856</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>46466</v>
+        <v>47780</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>33548</v>
+        <v>33859</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>42020</v>
+        <v>42528</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>48439</v>
+        <v>46701</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>46151</v>
+        <v>43698</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>35420</v>
+        <v>35224</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>34134</v>
+        <v>33590</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>44674</v>
+        <v>42381</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>41854</v>
+        <v>42520</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>34356</v>
+        <v>34415</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>42518</v>
+        <v>42044</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>81422</v>
+        <v>82605</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>78286</v>
+        <v>79072</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>60898</v>
+        <v>61558</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>69268</v>
+        <v>69589</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>31083</v>
+        <v>31765</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>15336</v>
+        <v>16061</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>14351</v>
+        <v>14477</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>16574</v>
+        <v>17719</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>15970</v>
+        <v>16545</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>18827</v>
+        <v>18932</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>14214</v>
+        <v>14459</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>19315</v>
+        <v>18830</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>53912</v>
+        <v>53713</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>39368</v>
+        <v>39781</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>32385</v>
+        <v>32364</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>39875</v>
+        <v>41355</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>58498</v>
+        <v>59053</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>33845</v>
+        <v>35054</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>32664</v>
+        <v>32427</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>40497</v>
+        <v>41936</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>35988</v>
+        <v>36069</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>41742</v>
+        <v>40315</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>34605</v>
+        <v>33094</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>35634</v>
+        <v>34639</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>87110</v>
+        <v>89104</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>67390</v>
+        <v>68259</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>59906</v>
+        <v>60725</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>67835</v>
+        <v>68961</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>15864</v>
+        <v>15488</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>11789</v>
+        <v>11896</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>5393</v>
+        <v>5427</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>12859</v>
+        <v>12225</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>5547</v>
+        <v>5889</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>6244</v>
+        <v>6285</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>4040</v>
+        <v>3568</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>11466</v>
+        <v>11934</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>25584</v>
+        <v>24541</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>20985</v>
+        <v>22496</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>11154</v>
+        <v>12053</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>28292</v>
+        <v>28254</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>35996</v>
+        <v>36768</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>32156</v>
+        <v>32629</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>19267</v>
+        <v>19316</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>39772</v>
+        <v>39153</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>18994</v>
+        <v>18742</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>23307</v>
+        <v>21997</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>16746</v>
+        <v>15680</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>26383</v>
+        <v>27150</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>49846</v>
+        <v>49673</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>45181</v>
+        <v>48665</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>30077</v>
+        <v>30382</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>58046</v>
+        <v>58078</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>102029</v>
+        <v>102783</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>78223</v>
+        <v>79189</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>72207</v>
+        <v>70632</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>64046</v>
+        <v>63330</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>73335</v>
+        <v>74189</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>79828</v>
+        <v>78249</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>69946</v>
+        <v>70144</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>83761</v>
+        <v>80964</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>185343</v>
+        <v>186365</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>169429</v>
+        <v>170160</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>149132</v>
+        <v>151408</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>155648</v>
+        <v>157151</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>148183</v>
+        <v>145732</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>118692</v>
+        <v>120126</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>108325</v>
+        <v>109945</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>105725</v>
+        <v>105383</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>110031</v>
+        <v>112029</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>118906</v>
+        <v>117881</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>107425</v>
+        <v>111358</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>118514</v>
+        <v>116909</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>242311</v>
+        <v>244735</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>226105</v>
+        <v>226718</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>202659</v>
+        <v>206555</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>209573</v>
+        <v>212396</v>
       </c>
     </row>
     <row r="24">
